--- a/ThucTapNhom_Tuan01.xlsx
+++ b/ThucTapNhom_Tuan01.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Báo cáo thực tập môn học : THỰC TẬP NHÓM</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>procAddNV</t>
+  </si>
+  <si>
+    <t>Đăng nhập</t>
   </si>
 </sst>
 </file>
@@ -329,6 +332,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -347,24 +368,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,7 +672,7 @@
   <dimension ref="A2:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="D14" sqref="D14:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -690,31 +693,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="14"/>
@@ -728,14 +731,14 @@
       <c r="S3" s="6"/>
     </row>
     <row r="4" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -746,14 +749,14 @@
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
@@ -764,14 +767,14 @@
       <c r="R5" s="14"/>
     </row>
     <row r="6" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -782,14 +785,14 @@
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -802,14 +805,14 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -822,14 +825,14 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:19" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -840,16 +843,16 @@
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:19" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -869,13 +872,13 @@
       <c r="C11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -921,11 +924,13 @@
       <c r="C13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
+      <c r="D13" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -1136,16 +1141,16 @@
       <c r="R21" s="1"/>
     </row>
     <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="23"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="29"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -1227,12 +1232,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:H9"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D17:H17"/>
     <mergeCell ref="K29:R29"/>
     <mergeCell ref="D19:H19"/>
     <mergeCell ref="K3:R3"/>
@@ -1249,6 +1248,12 @@
     <mergeCell ref="A22:H22"/>
     <mergeCell ref="D15:H15"/>
     <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:H9"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D17:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
